--- a/数据挖掘实战-KNN推荐、聚类分析（旅游项目）/预测文本.xlsx
+++ b/数据挖掘实战-KNN推荐、聚类分析（旅游项目）/预测文本.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>content</t>
   </si>
@@ -88,6 +88,9 @@
     <t>夜晚来欣赏东方明珠，真是感觉漂亮，不停变化灯光，印衬着周围造型各异的摩登摩天大楼，让人止不住要拍照留影。这是新上海啊，媲美全球各地。</t>
   </si>
   <si>
+    <t>想和家人一起旅游  希望排队时间少  景点具有特色</t>
+  </si>
+  <si>
     <t>上海 去过 东方明珠 区别 打卡 拍照 必游 非要 推荐 几处 免费 塔下 进门 有个 广场 旁边 天桥 陆家嘴 环路 逛逛 周边 商场 国金 正大 逛逛</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>夜晚 欣赏 东方明珠 感觉 漂亮 不停 变化 灯光 印衬 造型各异 摩登 摩天大楼 止不住 拍照 留影 上海 媲美 全球</t>
+  </si>
+  <si>
+    <t>家人 旅游 希望 排队 时间 景点 特色</t>
   </si>
   <si>
     <t>徐汇区</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +540,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -567,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -622,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -633,10 +639,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -644,10 +650,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -655,10 +661,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -666,10 +672,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -677,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -688,10 +694,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -699,10 +705,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -710,10 +716,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -721,10 +727,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -732,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -743,10 +749,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -754,10 +760,21 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
